--- a/data/trans_orig/P36S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E28F103-1961-4996-B499-0623815428E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF11164-9230-40EC-9450-CC408D47F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9621C9B7-9A0A-4C96-A3FF-52F17B7465F0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEBA8CF0-017B-4D38-9398-156559C7FFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="491">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -79,1468 +79,1438 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,61%</t>
+    <t>4,61%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>89,74%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
+    <t>5,26%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>3,78%</t>
+    <t>4,8%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>95,38%</t>
+    <t>95,3%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
+    <t>94,93%</t>
   </si>
 </sst>
 </file>
@@ -1952,7 +1922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEC0B56D-385A-4607-98DB-4CDD54A4C269}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC810A29-D8BA-4CBF-8BBB-30340073D15D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2402,10 +2372,10 @@
         <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -2414,13 +2384,13 @@
         <v>14357</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,13 +2405,13 @@
         <v>19282</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -2450,13 +2420,13 @@
         <v>2874</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>21</v>
@@ -2465,13 +2435,13 @@
         <v>22156</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2486,13 +2456,13 @@
         <v>3825</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -2501,13 +2471,13 @@
         <v>17662</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -2516,13 +2486,13 @@
         <v>21488</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,13 +2507,13 @@
         <v>413486</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H13" s="7">
         <v>422</v>
@@ -2552,13 +2522,13 @@
         <v>429225</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>834</v>
@@ -2567,13 +2537,13 @@
         <v>842711</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2558,13 @@
         <v>1019</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -2603,13 +2573,13 @@
         <v>11550</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -2618,13 +2588,13 @@
         <v>12569</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,7 +2650,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2692,13 +2662,13 @@
         <v>9011</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -2710,10 +2680,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2722,13 +2692,13 @@
         <v>13448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2713,13 @@
         <v>4901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2758,13 +2728,13 @@
         <v>4036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2776,10 +2746,10 @@
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2794,13 +2764,13 @@
         <v>17891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2809,13 +2779,13 @@
         <v>37212</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>76</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2824,13 +2794,13 @@
         <v>55103</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,13 +2815,13 @@
         <v>735573</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>668</v>
@@ -2860,13 +2830,13 @@
         <v>716836</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>1356</v>
@@ -2875,13 +2845,13 @@
         <v>1452410</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2866,13 @@
         <v>12782</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2911,13 +2881,13 @@
         <v>7376</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2926,13 +2896,13 @@
         <v>20158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>132</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,7 +2958,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3000,13 +2970,13 @@
         <v>11992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -3015,13 +2985,13 @@
         <v>5309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3030,13 +3000,13 @@
         <v>17302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3051,13 +3021,13 @@
         <v>9241</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3072,7 +3042,7 @@
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3081,13 +3051,13 @@
         <v>9241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,13 +3072,13 @@
         <v>29142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3117,13 +3087,13 @@
         <v>39517</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -3132,13 +3102,13 @@
         <v>68659</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3153,13 +3123,13 @@
         <v>461136</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>492</v>
@@ -3168,13 +3138,13 @@
         <v>482026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>932</v>
@@ -3183,13 +3153,13 @@
         <v>943162</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3204,13 +3174,13 @@
         <v>927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3219,13 +3189,13 @@
         <v>3445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3234,13 +3204,13 @@
         <v>4372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3266,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3308,13 +3278,13 @@
         <v>6539</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3323,13 +3293,13 @@
         <v>8295</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -3338,13 +3308,13 @@
         <v>14834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3329,13 @@
         <v>5306</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3374,13 +3344,13 @@
         <v>3797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3389,13 +3359,13 @@
         <v>9103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3380,13 @@
         <v>35647</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -3425,13 +3395,13 @@
         <v>33831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -3440,13 +3410,13 @@
         <v>69478</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,13 +3431,13 @@
         <v>616896</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H31" s="7">
         <v>683</v>
@@ -3476,13 +3446,13 @@
         <v>711311</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="M31" s="7">
         <v>1336</v>
@@ -3491,13 +3461,13 @@
         <v>1328206</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,13 +3482,13 @@
         <v>10524</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3527,13 +3497,13 @@
         <v>3942</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>205</v>
+        <v>102</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -3542,13 +3512,13 @@
         <v>14466</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3616,13 +3586,13 @@
         <v>34291</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -3634,25 +3604,25 @@
         <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>211</v>
+        <v>15</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
       </c>
       <c r="N34" s="7">
-        <v>63337</v>
+        <v>63336</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3667,13 +3637,13 @@
         <v>39830</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3682,13 +3652,13 @@
         <v>10707</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="M35" s="7">
         <v>48</v>
@@ -3700,10 +3670,10 @@
         <v>47</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3718,13 +3688,13 @@
         <v>87656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>129</v>
@@ -3733,13 +3703,13 @@
         <v>129883</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="M36" s="7">
         <v>214</v>
@@ -3748,13 +3718,13 @@
         <v>217539</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,13 +3739,13 @@
         <v>2317763</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="H37" s="7">
         <v>2369</v>
@@ -3784,28 +3754,28 @@
         <v>2431864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="M37" s="7">
         <v>4644</v>
       </c>
       <c r="N37" s="7">
-        <v>4749629</v>
+        <v>4749628</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,13 +3790,13 @@
         <v>25253</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>62</v>
+        <v>225</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -3835,13 +3805,13 @@
         <v>26312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3850,13 +3820,13 @@
         <v>51566</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,7 +3868,7 @@
         <v>5021</v>
       </c>
       <c r="N39" s="7">
-        <v>5132607</v>
+        <v>5132606</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>48</v>
@@ -3912,7 +3882,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3933,7 +3903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75993C92-B89C-4134-A560-BC266CF81640}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343A708F-5BC3-4EB9-A440-12AA179C7E28}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3950,7 +3920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4063,7 +4033,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4093,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +4078,13 @@
         <v>2167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4123,13 +4093,13 @@
         <v>1085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4138,13 +4108,13 @@
         <v>3252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4129,13 @@
         <v>3934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4174,13 +4144,13 @@
         <v>3217</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4189,13 +4159,13 @@
         <v>7151</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,13 +4180,13 @@
         <v>86666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -4225,13 +4195,13 @@
         <v>92121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -4240,13 +4210,13 @@
         <v>178787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4261,13 +4231,13 @@
         <v>868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4291,13 +4261,13 @@
         <v>868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4335,7 @@
         <v>934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
@@ -4380,13 +4350,13 @@
         <v>2064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4395,13 +4365,13 @@
         <v>2998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4416,13 +4386,13 @@
         <v>15801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4431,13 +4401,13 @@
         <v>3963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4446,13 +4416,13 @@
         <v>19764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4437,13 @@
         <v>21486</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -4482,13 +4452,13 @@
         <v>25168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -4497,13 +4467,13 @@
         <v>46654</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4488,13 @@
         <v>472895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -4533,13 +4503,13 @@
         <v>474147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="M13" s="7">
         <v>887</v>
@@ -4548,13 +4518,13 @@
         <v>947042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4539,13 @@
         <v>2007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4584,13 +4554,13 @@
         <v>1044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4599,13 +4569,13 @@
         <v>3051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,7 +4631,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4673,13 +4643,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4688,13 +4658,13 @@
         <v>1958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4703,10 +4673,10 @@
         <v>3923</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>25</v>
@@ -4724,13 +4694,13 @@
         <v>9031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4739,13 +4709,13 @@
         <v>6102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4754,13 +4724,13 @@
         <v>15132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4775,13 +4745,13 @@
         <v>33079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -4790,13 +4760,13 @@
         <v>47494</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -4805,13 +4775,13 @@
         <v>80573</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>299</v>
+        <v>216</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4826,13 +4796,13 @@
         <v>780880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -4841,13 +4811,13 @@
         <v>848903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M19" s="7">
         <v>1493</v>
@@ -4856,13 +4826,13 @@
         <v>1629783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4847,13 @@
         <v>4334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4892,13 +4862,13 @@
         <v>4353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4907,13 +4877,13 @@
         <v>8687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,7 +4939,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4981,13 +4951,13 @@
         <v>7974</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4999,10 +4969,10 @@
         <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -5011,13 +4981,13 @@
         <v>14387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>96</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5032,13 +5002,13 @@
         <v>11559</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -5047,13 +5017,13 @@
         <v>4030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -5062,13 +5032,13 @@
         <v>15589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,13 +5053,13 @@
         <v>33568</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -5098,13 +5068,13 @@
         <v>43597</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
@@ -5113,13 +5083,13 @@
         <v>77165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>29</v>
+        <v>187</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5104,13 @@
         <v>546811</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H25" s="7">
         <v>541</v>
@@ -5149,13 +5119,13 @@
         <v>596192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M25" s="7">
         <v>1038</v>
@@ -5164,13 +5134,13 @@
         <v>1143004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>336</v>
+        <v>195</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,10 +5155,10 @@
         <v>4966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>24</v>
@@ -5200,13 +5170,13 @@
         <v>3281</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5215,13 +5185,13 @@
         <v>8247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5277,7 +5247,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5289,13 +5259,13 @@
         <v>6978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>283</v>
+        <v>135</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5304,13 +5274,13 @@
         <v>3945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5319,13 +5289,13 @@
         <v>10923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5310,13 @@
         <v>1334</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -5355,13 +5325,13 @@
         <v>5920</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5370,13 +5340,13 @@
         <v>7254</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5361,13 @@
         <v>47392</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -5406,13 +5376,13 @@
         <v>52080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5421,13 +5391,13 @@
         <v>99472</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5412,13 @@
         <v>718231</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="H31" s="7">
         <v>782</v>
@@ -5457,13 +5427,13 @@
         <v>825117</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M31" s="7">
         <v>1470</v>
@@ -5472,13 +5442,13 @@
         <v>1543347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5463,13 @@
         <v>1043</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5508,13 +5478,13 @@
         <v>2953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -5523,13 +5493,13 @@
         <v>3996</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,10 +5567,10 @@
         <v>17851</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>47</v>
@@ -5612,13 +5582,13 @@
         <v>14380</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -5630,10 +5600,10 @@
         <v>18</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5648,13 +5618,13 @@
         <v>39892</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -5663,13 +5633,13 @@
         <v>21099</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>368</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="M35" s="7">
         <v>60</v>
@@ -5678,13 +5648,13 @@
         <v>60991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>311</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5699,13 +5669,13 @@
         <v>139458</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H36" s="7">
         <v>161</v>
@@ -5714,13 +5684,13 @@
         <v>171556</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -5729,13 +5699,13 @@
         <v>311015</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,13 +5720,13 @@
         <v>2605483</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H37" s="7">
         <v>2621</v>
@@ -5765,13 +5735,13 @@
         <v>2836479</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="M37" s="7">
         <v>5060</v>
@@ -5780,13 +5750,13 @@
         <v>5441962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5801,13 +5771,13 @@
         <v>13217</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>15</v>
+        <v>378</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -5816,13 +5786,13 @@
         <v>11632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="M38" s="7">
         <v>24</v>
@@ -5831,13 +5801,13 @@
         <v>24849</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,7 +5863,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -5914,7 +5884,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A68F92-CAE2-4973-BB35-490F629C75FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3931603-7903-452C-BC3E-6232DD8A6E88}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5931,7 +5901,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6044,7 +6014,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6059,7 +6029,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6089,13 +6059,13 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>386</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6110,7 +6080,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>381</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6119,13 +6089,13 @@
         <v>1149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6110,13 @@
         <v>8484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6155,13 +6125,13 @@
         <v>3554</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>392</v>
+        <v>107</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>393</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6170,13 +6140,13 @@
         <v>12038</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6191,13 +6161,13 @@
         <v>87979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -6206,13 +6176,13 @@
         <v>93275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -6221,13 +6191,13 @@
         <v>181254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>398</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6248,7 +6218,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6257,13 +6227,13 @@
         <v>880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>401</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6272,13 +6242,13 @@
         <v>880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,13 +6316,13 @@
         <v>5066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6361,13 +6331,13 @@
         <v>3041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6376,13 +6346,13 @@
         <v>8107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6397,13 +6367,13 @@
         <v>3683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>286</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6412,13 +6382,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>239</v>
+        <v>405</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6427,13 +6397,13 @@
         <v>4655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6448,13 +6418,13 @@
         <v>13774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>410</v>
+        <v>139</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6463,13 +6433,13 @@
         <v>13024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -6478,13 +6448,13 @@
         <v>26798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>203</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>90</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,13 +6469,13 @@
         <v>419102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H13" s="7">
         <v>453</v>
@@ -6514,13 +6484,13 @@
         <v>463923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>861</v>
@@ -6529,13 +6499,13 @@
         <v>883025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,13 +6520,13 @@
         <v>1049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>285</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6565,13 +6535,13 @@
         <v>2075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>424</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6580,13 +6550,13 @@
         <v>3124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>260</v>
+        <v>421</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,7 +6612,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6654,13 +6624,13 @@
         <v>2184</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6669,13 +6639,13 @@
         <v>4846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6684,13 +6654,13 @@
         <v>7029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6705,13 +6675,13 @@
         <v>11498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>92</v>
+        <v>424</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6720,13 +6690,13 @@
         <v>8562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>427</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>428</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6735,13 +6705,13 @@
         <v>20059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6756,13 +6726,13 @@
         <v>45943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>431</v>
+        <v>180</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -6771,13 +6741,13 @@
         <v>44838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -6786,13 +6756,13 @@
         <v>90781</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>435</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6807,13 +6777,13 @@
         <v>799075</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -6822,13 +6792,13 @@
         <v>842373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M19" s="7">
         <v>1528</v>
@@ -6837,13 +6807,13 @@
         <v>1641448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,13 +6828,13 @@
         <v>996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>25</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6873,13 +6843,13 @@
         <v>928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6888,13 +6858,13 @@
         <v>1924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>344</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6950,7 +6920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6962,13 +6932,13 @@
         <v>3239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>234</v>
+        <v>103</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6977,13 +6947,13 @@
         <v>8341</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>252</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -6992,13 +6962,13 @@
         <v>11580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>341</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7013,13 +6983,13 @@
         <v>3149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>100</v>
+        <v>304</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7028,13 +6998,13 @@
         <v>1062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7043,13 +7013,13 @@
         <v>4211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>339</v>
+        <v>177</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7064,13 +7034,13 @@
         <v>29269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>450</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -7079,13 +7049,13 @@
         <v>36269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>448</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -7094,13 +7064,13 @@
         <v>65538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>299</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7115,13 +7085,13 @@
         <v>614463</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H25" s="7">
         <v>627</v>
@@ -7130,13 +7100,13 @@
         <v>670791</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M25" s="7">
         <v>1190</v>
@@ -7145,13 +7115,13 @@
         <v>1285255</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7166,13 +7136,13 @@
         <v>2216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7181,13 +7151,13 @@
         <v>3016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>11</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7196,13 +7166,13 @@
         <v>5232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7258,7 +7228,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7270,13 +7240,13 @@
         <v>1125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>465</v>
+        <v>61</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7285,13 +7255,13 @@
         <v>3257</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7300,13 +7270,13 @@
         <v>4382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>102</v>
+        <v>422</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>51</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7321,13 +7291,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7336,13 +7306,13 @@
         <v>996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>468</v>
+        <v>359</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7351,13 +7321,13 @@
         <v>3986</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>468</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7372,13 +7342,13 @@
         <v>25448</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>469</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>470</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -7387,13 +7357,13 @@
         <v>34335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>472</v>
+        <v>144</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -7402,13 +7372,13 @@
         <v>59783</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>76</v>
+        <v>466</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,13 +7393,13 @@
         <v>767747</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="H31" s="7">
         <v>820</v>
@@ -7438,13 +7408,13 @@
         <v>895696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M31" s="7">
         <v>1587</v>
@@ -7453,13 +7423,13 @@
         <v>1663443</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>482</v>
+        <v>400</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7474,13 +7444,13 @@
         <v>1799</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7495,7 +7465,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7504,13 +7474,13 @@
         <v>1799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>365</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7578,13 +7548,13 @@
         <v>11613</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -7593,10 +7563,10 @@
         <v>19485</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>467</v>
+        <v>135</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>47</v>
@@ -7608,13 +7578,13 @@
         <v>31098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>365</v>
+        <v>462</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7629,13 +7599,13 @@
         <v>22468</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>178</v>
+        <v>15</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>485</v>
+        <v>132</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -7644,13 +7614,13 @@
         <v>11592</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>233</v>
+        <v>314</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -7659,13 +7629,13 @@
         <v>34061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>138</v>
+        <v>361</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7680,13 +7650,13 @@
         <v>122917</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>113</v>
+        <v>477</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>387</v>
+        <v>478</v>
       </c>
       <c r="H36" s="7">
         <v>132</v>
@@ -7695,13 +7665,13 @@
         <v>132021</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M36" s="7">
         <v>246</v>
@@ -7710,13 +7680,13 @@
         <v>254938</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>491</v>
+        <v>180</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>191</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7731,13 +7701,13 @@
         <v>2688366</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="H37" s="7">
         <v>2778</v>
@@ -7746,28 +7716,28 @@
         <v>2966058</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="M37" s="7">
         <v>5347</v>
       </c>
       <c r="N37" s="7">
-        <v>5654424</v>
+        <v>5654423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>498</v>
+        <v>358</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7782,13 +7752,13 @@
         <v>6060</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>69</v>
+        <v>278</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>499</v>
+        <v>443</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>423</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7797,13 +7767,13 @@
         <v>6899</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -7812,13 +7782,13 @@
         <v>12958</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>144</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7860,7 +7830,7 @@
         <v>5668</v>
       </c>
       <c r="N39" s="7">
-        <v>5987479</v>
+        <v>5987478</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>48</v>
@@ -7874,7 +7844,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36S2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36S2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EF11164-9230-40EC-9450-CC408D47F492}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED788CCC-15C5-4A79-957E-52314A3239FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FEBA8CF0-017B-4D38-9398-156559C7FFE6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D473061-5C50-41FA-A391-56C5F461D667}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="501">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2007 (Tasa respuesta: 77,12%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otro tipo de alimentos</t>
@@ -79,1438 +79,1468 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,61%</t>
+    <t>4,84%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>Alimentos como huevos, queso, jamón, etc</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>Fruta y/o zumo</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>Alimentos como huevos, queso, jamón, etc</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>Fruta y/o zumo</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2016 (Tasa respuesta: 86,28%)</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>6,01%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>Pan, tostadas, galletas, cereales, bollería, etc</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>91,09%</t>
   </si>
   <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2012 (Tasa respuesta: 84,05%)</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 2 en 2015 (Tasa respuesta: 86,28%)</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
     <t>4,31%</t>
   </si>
   <si>
     <t>3,56%</t>
   </si>
   <si>
-    <t>5,26%</t>
+    <t>5,1%</t>
   </si>
   <si>
     <t>4,21%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
+    <t>3,58%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
   </si>
   <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>93,31%</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>95,3%</t>
+    <t>95,31%</t>
   </si>
   <si>
     <t>94,44%</t>
   </si>
   <si>
-    <t>94,93%</t>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC810A29-D8BA-4CBF-8BBB-30340073D15D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F93583-A73B-4643-A4AF-19052E8C983B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2357,10 +2387,10 @@
         <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -2369,10 +2399,10 @@
         <v>8651</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>54</v>
@@ -2438,10 +2468,10 @@
         <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2486,13 @@
         <v>3825</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>18</v>
@@ -2471,13 +2501,13 @@
         <v>17662</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>22</v>
@@ -2486,13 +2516,13 @@
         <v>21488</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,10 +2710,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -2692,13 +2722,13 @@
         <v>13448</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2713,13 +2743,13 @@
         <v>4901</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2728,13 +2758,13 @@
         <v>4036</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -2746,10 +2776,10 @@
         <v>25</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2794,13 @@
         <v>17891</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>35</v>
@@ -2779,13 +2809,13 @@
         <v>37212</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -2794,13 +2824,13 @@
         <v>55103</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,13 +2845,13 @@
         <v>735573</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>668</v>
@@ -2830,13 +2860,13 @@
         <v>716836</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>1356</v>
@@ -2845,13 +2875,13 @@
         <v>1452410</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,13 +2896,13 @@
         <v>12782</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>7</v>
@@ -2881,13 +2911,13 @@
         <v>7376</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>18</v>
@@ -2896,13 +2926,13 @@
         <v>20158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2958,7 +2988,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2970,13 +3000,13 @@
         <v>11992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2985,13 +3015,13 @@
         <v>5309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>17</v>
@@ -3000,13 +3030,13 @@
         <v>17302</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3021,13 +3051,13 @@
         <v>9241</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3042,7 +3072,7 @@
         <v>23</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3051,13 +3081,13 @@
         <v>9241</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3102,13 @@
         <v>29142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -3087,13 +3117,13 @@
         <v>39517</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -3102,13 +3132,13 @@
         <v>68659</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,13 +3153,13 @@
         <v>461136</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>492</v>
@@ -3138,13 +3168,13 @@
         <v>482026</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>932</v>
@@ -3153,13 +3183,13 @@
         <v>943162</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3204,13 @@
         <v>927</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -3189,13 +3219,13 @@
         <v>3445</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -3204,13 +3234,13 @@
         <v>4372</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3296,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3278,13 +3308,13 @@
         <v>6539</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H28" s="7">
         <v>8</v>
@@ -3293,13 +3323,13 @@
         <v>8295</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>14</v>
@@ -3308,13 +3338,13 @@
         <v>14834</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3359,13 @@
         <v>5306</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -3344,13 +3374,13 @@
         <v>3797</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -3359,13 +3389,13 @@
         <v>9103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3410,13 @@
         <v>35647</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
         <v>33</v>
@@ -3395,13 +3425,13 @@
         <v>33831</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
         <v>70</v>
@@ -3410,13 +3440,13 @@
         <v>69478</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>13</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3461,13 @@
         <v>616896</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H31" s="7">
         <v>683</v>
@@ -3446,13 +3476,13 @@
         <v>711311</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M31" s="7">
         <v>1336</v>
@@ -3461,13 +3491,13 @@
         <v>1328206</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3512,13 @@
         <v>10524</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>73</v>
+        <v>169</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -3497,13 +3527,13 @@
         <v>3942</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -3512,13 +3542,13 @@
         <v>14466</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>201</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3616,13 @@
         <v>34291</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>203</v>
+        <v>130</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -3604,25 +3634,25 @@
         <v>11</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M34" s="7">
         <v>64</v>
       </c>
       <c r="N34" s="7">
-        <v>63336</v>
+        <v>63337</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>128</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3667,13 @@
         <v>39830</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -3652,13 +3682,13 @@
         <v>10707</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>62</v>
+        <v>213</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>48</v>
@@ -3670,10 +3700,10 @@
         <v>47</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3688,13 +3718,13 @@
         <v>87656</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>129</v>
@@ -3703,13 +3733,13 @@
         <v>129883</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>214</v>
@@ -3718,13 +3748,13 @@
         <v>217539</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>216</v>
+        <v>148</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3769,13 @@
         <v>2317763</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>2369</v>
@@ -3754,28 +3784,28 @@
         <v>2431864</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>4644</v>
       </c>
       <c r="N37" s="7">
-        <v>4749628</v>
+        <v>4749629</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3820,13 @@
         <v>25253</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H38" s="7">
         <v>28</v>
@@ -3805,13 +3835,13 @@
         <v>26312</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -3820,13 +3850,13 @@
         <v>51566</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>90</v>
+        <v>202</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>106</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,7 +3898,7 @@
         <v>5021</v>
       </c>
       <c r="N39" s="7">
-        <v>5132606</v>
+        <v>5132607</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>48</v>
@@ -3882,7 +3912,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -3903,7 +3933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343A708F-5BC3-4EB9-A440-12AA179C7E28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018C3C73-A6BD-4802-81D4-DD7C459635CB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3920,7 +3950,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4033,7 +4063,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4063,7 +4093,7 @@
         <v>23</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4108,13 @@
         <v>2167</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -4093,13 +4123,13 @@
         <v>1085</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -4108,13 +4138,13 @@
         <v>3252</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>113</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4159,13 @@
         <v>3934</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>245</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H6" s="7">
         <v>3</v>
@@ -4144,13 +4174,13 @@
         <v>3217</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="M6" s="7">
         <v>8</v>
@@ -4159,13 +4189,13 @@
         <v>7151</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4180,13 +4210,13 @@
         <v>86666</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -4195,13 +4225,13 @@
         <v>92121</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
         <v>172</v>
@@ -4210,13 +4240,13 @@
         <v>178787</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4231,13 +4261,13 @@
         <v>868</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4261,13 +4291,13 @@
         <v>868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>138</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4365,13 @@
         <v>934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -4350,13 +4380,13 @@
         <v>2064</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -4365,13 +4395,13 @@
         <v>2998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4416,13 @@
         <v>15801</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>13</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4401,13 +4431,13 @@
         <v>3963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>267</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -4416,13 +4446,13 @@
         <v>19764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4467,13 @@
         <v>21486</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>140</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="H12" s="7">
         <v>24</v>
@@ -4452,13 +4482,13 @@
         <v>25168</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="M12" s="7">
         <v>44</v>
@@ -4467,13 +4497,13 @@
         <v>46654</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4488,13 +4518,13 @@
         <v>472895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>445</v>
@@ -4503,13 +4533,13 @@
         <v>474147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>887</v>
@@ -4518,13 +4548,13 @@
         <v>947042</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,13 +4569,13 @@
         <v>2007</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -4554,13 +4584,13 @@
         <v>1044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -4569,13 +4599,13 @@
         <v>3051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>12</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4643,13 +4673,13 @@
         <v>1965</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -4658,13 +4688,13 @@
         <v>1958</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -4676,10 +4706,10 @@
         <v>84</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4724,13 @@
         <v>9031</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4709,13 +4739,13 @@
         <v>6102</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>285</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4724,13 +4754,13 @@
         <v>15132</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>286</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4745,13 +4775,13 @@
         <v>33079</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="H18" s="7">
         <v>44</v>
@@ -4760,13 +4790,13 @@
         <v>47494</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="M18" s="7">
         <v>76</v>
@@ -4775,13 +4805,13 @@
         <v>80573</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>216</v>
+        <v>304</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>294</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,13 +4826,13 @@
         <v>780880</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>772</v>
@@ -4811,13 +4841,13 @@
         <v>848903</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="M19" s="7">
         <v>1493</v>
@@ -4826,13 +4856,13 @@
         <v>1629783</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>301</v>
+        <v>80</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4877,13 @@
         <v>4334</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -4862,13 +4892,13 @@
         <v>4353</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4877,13 +4907,13 @@
         <v>8687</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4969,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4951,13 +4981,13 @@
         <v>7974</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -4969,10 +4999,10 @@
         <v>47</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>70</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -4981,13 +5011,13 @@
         <v>14387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5032,13 @@
         <v>11559</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>311</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -5017,13 +5047,13 @@
         <v>4030</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>316</v>
+        <v>55</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -5032,13 +5062,13 @@
         <v>15589</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5083,13 @@
         <v>33568</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -5068,13 +5098,13 @@
         <v>43597</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M24" s="7">
         <v>70</v>
@@ -5083,13 +5113,13 @@
         <v>77165</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>187</v>
+        <v>327</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>243</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,16 +5131,16 @@
         <v>497</v>
       </c>
       <c r="D25" s="7">
-        <v>546811</v>
+        <v>546812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H25" s="7">
         <v>541</v>
@@ -5119,13 +5149,13 @@
         <v>596192</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M25" s="7">
         <v>1038</v>
@@ -5134,13 +5164,13 @@
         <v>1143004</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,13 +5185,13 @@
         <v>4966</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>339</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5170,13 +5200,13 @@
         <v>3281</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -5185,13 +5215,13 @@
         <v>8247</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>85</v>
+        <v>340</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,7 +5233,7 @@
         <v>550</v>
       </c>
       <c r="D27" s="7">
-        <v>604878</v>
+        <v>604879</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>48</v>
@@ -5247,7 +5277,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5259,13 +5289,13 @@
         <v>6978</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5274,13 +5304,13 @@
         <v>3945</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -5289,13 +5319,13 @@
         <v>10923</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>338</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>337</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5340,13 @@
         <v>1334</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>340</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -5325,13 +5355,13 @@
         <v>5920</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>286</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -5340,10 +5370,10 @@
         <v>7254</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>142</v>
+        <v>342</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>339</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>341</v>
@@ -5361,13 +5391,13 @@
         <v>47392</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -5376,13 +5406,13 @@
         <v>52080</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="M30" s="7">
         <v>98</v>
@@ -5391,13 +5421,13 @@
         <v>99472</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>349</v>
+        <v>13</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5442,13 @@
         <v>718231</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H31" s="7">
         <v>782</v>
@@ -5427,13 +5457,13 @@
         <v>825117</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="M31" s="7">
         <v>1470</v>
@@ -5442,13 +5472,13 @@
         <v>1543347</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5493,13 @@
         <v>1043</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -5478,13 +5508,13 @@
         <v>2953</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>12</v>
+        <v>343</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>341</v>
+        <v>47</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -5493,13 +5523,13 @@
         <v>3996</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5597,13 @@
         <v>17851</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>360</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>47</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
@@ -5582,13 +5612,13 @@
         <v>14380</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>97</v>
+        <v>364</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>15</v>
+        <v>337</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -5597,13 +5627,13 @@
         <v>32231</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>18</v>
+        <v>363</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5648,13 @@
         <v>39892</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>363</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -5633,13 +5663,13 @@
         <v>21099</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>366</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>364</v>
+        <v>237</v>
       </c>
       <c r="M35" s="7">
         <v>60</v>
@@ -5648,13 +5678,13 @@
         <v>60991</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5699,13 @@
         <v>139458</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="H36" s="7">
         <v>161</v>
@@ -5684,13 +5714,13 @@
         <v>171556</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M36" s="7">
         <v>296</v>
@@ -5699,13 +5729,13 @@
         <v>311015</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -5720,13 +5750,13 @@
         <v>2605483</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>373</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>2621</v>
@@ -5735,13 +5765,13 @@
         <v>2836479</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="M37" s="7">
         <v>5060</v>
@@ -5750,13 +5780,13 @@
         <v>5441962</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>356</v>
+        <v>158</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5801,13 @@
         <v>13217</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>97</v>
+        <v>364</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H38" s="7">
         <v>11</v>
@@ -5786,13 +5816,13 @@
         <v>11632</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>284</v>
+        <v>383</v>
       </c>
       <c r="M38" s="7">
         <v>24</v>
@@ -5801,13 +5831,13 @@
         <v>24849</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>61</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,7 +5893,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -5884,7 +5914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3931603-7903-452C-BC3E-6232DD8A6E88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D8D926-02AD-491F-8CCC-D8422683092A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5901,7 +5931,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6014,7 +6044,7 @@
         <v>23</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6029,7 +6059,7 @@
         <v>23</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6059,13 +6089,13 @@
         <v>1149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>382</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6080,7 +6110,7 @@
         <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -6089,13 +6119,13 @@
         <v>1149</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6140,13 @@
         <v>8484</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="H6" s="7">
         <v>4</v>
@@ -6125,13 +6155,13 @@
         <v>3554</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>107</v>
+        <v>394</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>171</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -6140,13 +6170,13 @@
         <v>12038</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>389</v>
+        <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6191,13 @@
         <v>87979</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>394</v>
+        <v>307</v>
       </c>
       <c r="H7" s="7">
         <v>95</v>
@@ -6176,13 +6206,13 @@
         <v>93275</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>181</v>
@@ -6191,13 +6221,13 @@
         <v>181254</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,7 +6248,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6227,13 +6257,13 @@
         <v>880</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6242,13 +6272,13 @@
         <v>880</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,13 +6346,13 @@
         <v>5066</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -6331,13 +6361,13 @@
         <v>3041</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -6346,13 +6376,13 @@
         <v>8107</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>341</v>
+        <v>410</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>18</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +6397,13 @@
         <v>3683</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -6382,13 +6412,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -6397,13 +6427,13 @@
         <v>4655</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +6448,13 @@
         <v>13774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H12" s="7">
         <v>14</v>
@@ -6433,13 +6463,13 @@
         <v>13024</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="M12" s="7">
         <v>28</v>
@@ -6448,13 +6478,13 @@
         <v>26798</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>203</v>
+        <v>320</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6469,13 +6499,13 @@
         <v>419102</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="H13" s="7">
         <v>453</v>
@@ -6484,13 +6514,13 @@
         <v>463923</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M13" s="7">
         <v>861</v>
@@ -6499,13 +6529,13 @@
         <v>883025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6520,13 +6550,13 @@
         <v>1049</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>100</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -6535,13 +6565,13 @@
         <v>2075</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6550,13 +6580,13 @@
         <v>3124</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>421</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +6654,13 @@
         <v>2184</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -6639,13 +6669,13 @@
         <v>4846</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>426</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>256</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>286</v>
+        <v>427</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -6654,13 +6684,13 @@
         <v>7029</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>312</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6675,13 +6705,13 @@
         <v>11498</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>279</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -6690,13 +6720,13 @@
         <v>8562</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>174</v>
+        <v>430</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -6705,13 +6735,13 @@
         <v>20059</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6726,13 +6756,13 @@
         <v>45943</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>180</v>
+        <v>431</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -6741,13 +6771,13 @@
         <v>44838</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>216</v>
+        <v>433</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>86</v>
@@ -6756,13 +6786,13 @@
         <v>90781</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6777,13 +6807,13 @@
         <v>799075</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>432</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="H19" s="7">
         <v>783</v>
@@ -6792,13 +6822,13 @@
         <v>842373</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>377</v>
+        <v>439</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
         <v>1528</v>
@@ -6807,13 +6837,13 @@
         <v>1641448</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6828,13 +6858,13 @@
         <v>996</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>25</v>
+        <v>389</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6843,13 +6873,13 @@
         <v>928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>421</v>
+        <v>290</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>314</v>
+        <v>446</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6858,13 +6888,13 @@
         <v>1924</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,7 +6950,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6932,13 +6962,13 @@
         <v>3239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="H22" s="7">
         <v>8</v>
@@ -6950,10 +6980,10 @@
         <v>93</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -6962,13 +6992,13 @@
         <v>11580</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>441</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>442</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6983,13 +7013,13 @@
         <v>3149</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>304</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>315</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>87</v>
+        <v>312</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -6998,13 +7028,13 @@
         <v>1062</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -7013,13 +7043,13 @@
         <v>4211</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>177</v>
+        <v>338</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,13 +7064,13 @@
         <v>29269</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>444</v>
+        <v>415</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
       <c r="H24" s="7">
         <v>35</v>
@@ -7049,13 +7079,13 @@
         <v>36269</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="M24" s="7">
         <v>62</v>
@@ -7064,13 +7094,13 @@
         <v>65538</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>65</v>
+        <v>455</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7085,13 +7115,13 @@
         <v>614463</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H25" s="7">
         <v>627</v>
@@ -7100,13 +7130,13 @@
         <v>670791</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>454</v>
+        <v>229</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="M25" s="7">
         <v>1190</v>
@@ -7115,13 +7145,13 @@
         <v>1285255</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>458</v>
+        <v>279</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,13 +7166,13 @@
         <v>2216</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>206</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -7151,13 +7181,13 @@
         <v>3016</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>464</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -7166,13 +7196,13 @@
         <v>5232</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>361</v>
+        <v>174</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>315</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,7 +7258,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7240,13 +7270,13 @@
         <v>1125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -7255,13 +7285,13 @@
         <v>3257</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>421</v>
+        <v>290</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -7270,13 +7300,13 @@
         <v>4382</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>422</v>
+        <v>101</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>314</v>
+        <v>466</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7321,13 @@
         <v>2990</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>462</v>
+        <v>145</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -7306,13 +7336,13 @@
         <v>996</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>4</v>
@@ -7324,10 +7354,10 @@
         <v>84</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>173</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7342,13 +7372,13 @@
         <v>25448</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>198</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -7357,13 +7387,13 @@
         <v>34335</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>144</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>58</v>
@@ -7372,13 +7402,13 @@
         <v>59783</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>466</v>
+        <v>26</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>467</v>
+        <v>115</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7393,13 +7423,13 @@
         <v>767747</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="H31" s="7">
         <v>820</v>
@@ -7408,13 +7438,13 @@
         <v>895696</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>244</v>
+        <v>480</v>
       </c>
       <c r="M31" s="7">
         <v>1587</v>
@@ -7423,13 +7453,13 @@
         <v>1663443</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>400</v>
+        <v>481</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,7 +7480,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -7465,7 +7495,7 @@
         <v>23</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -7474,13 +7504,13 @@
         <v>1799</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>421</v>
+        <v>290</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7578,13 @@
         <v>11613</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>90</v>
+        <v>484</v>
       </c>
       <c r="H34" s="7">
         <v>18</v>
@@ -7563,10 +7593,10 @@
         <v>19485</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>47</v>
@@ -7578,13 +7608,13 @@
         <v>31098</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>462</v>
+        <v>314</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7629,13 @@
         <v>22468</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -7614,13 +7644,13 @@
         <v>11592</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>462</v>
+        <v>145</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>62</v>
+        <v>266</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>314</v>
+        <v>100</v>
       </c>
       <c r="M35" s="7">
         <v>33</v>
@@ -7629,13 +7659,13 @@
         <v>34061</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>361</v>
+        <v>129</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>475</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,13 +7680,13 @@
         <v>122917</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H36" s="7">
         <v>132</v>
@@ -7665,13 +7695,13 @@
         <v>132021</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
       <c r="M36" s="7">
         <v>246</v>
@@ -7680,13 +7710,13 @@
         <v>254938</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>180</v>
+        <v>491</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7701,13 +7731,13 @@
         <v>2688366</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>485</v>
+        <v>195</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="H37" s="7">
         <v>2778</v>
@@ -7716,13 +7746,13 @@
         <v>2966058</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M37" s="7">
         <v>5347</v>
@@ -7731,13 +7761,13 @@
         <v>5654423</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>358</v>
+        <v>498</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7752,13 +7782,13 @@
         <v>6060</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>423</v>
+        <v>342</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7767,13 +7797,13 @@
         <v>6899</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M38" s="7">
         <v>13</v>
@@ -7782,13 +7812,13 @@
         <v>12958</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>305</v>
+        <v>445</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>360</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,7 +7874,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
